--- a/biology/Microbiologie/Sphingomonas_paucimobilis/Sphingomonas_paucimobilis.xlsx
+++ b/biology/Microbiologie/Sphingomonas_paucimobilis/Sphingomonas_paucimobilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphingomonas paucimobilis est une bactérie aérobie strict à Gram négatif du sol, peu mobile avec un unique flagelle polaire. Comme les autres membres du genre Sphingomonas, sa biochimie est remarquable en ce qu'elle utilise une ubiquinone (coenzyme Q10) comme principale quinone respiratoire ainsi que des glycosphingolipides à la place des lipopolysaccharides dans son enveloppe cellulaire. 
-S. paucimobilis est capable de dégrader les composés de type biphényle issus de la lignine[2].
+S. paucimobilis est capable de dégrader les composés de type biphényle issus de la lignine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été impliquée dans différents types d'infections[3],[4] avec bactériémie[5] d'origine nosocomiale[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été impliquée dans différents types d'infections, avec bactériémie d'origine nosocomiale.
 </t>
         </is>
       </c>
